--- a/data/actuarial firm supplemental.xlsx
+++ b/data/actuarial firm supplemental.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongbui/Library/CloudStorage/Dropbox/Work/Reason/Reason Work/Actuarial Firms data/actuarial_firms/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tn/Desktop/REASON/actuarial_firms/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C20DD33-F05A-C042-84C4-B0173B2FB9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B12A65-8599-2D43-8BA7-8933787B658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7A5B4235-9EB2-0943-81DB-F25FB0B40147}"/>
   </bookViews>
@@ -554,15 +554,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305A974A-B4F2-8E47-80EC-7DD2098465F1}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
